--- a/Code + Models/fba/input/Test/TCGA_HNSCC_biomass.xlsx
+++ b/Code + Models/fba/input/Test/TCGA_HNSCC_biomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\FBA-pipeline\Code + Models\fba\input\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E517105-8DDE-4B57-A416-C49C10C40C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA21ED7-EDCD-4896-AD74-BC897D4F3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2115" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8250" yWindow="3225" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -48320,7 +48320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
